--- a/imagenes_guardadas/archivo_con_firma.xlsx
+++ b/imagenes_guardadas/archivo_con_firma.xlsx
@@ -618,7 +618,7 @@
       <xdr:row>73</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1028700" cy="514350"/>
+    <xdr:ext cx="1019175" cy="514350"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Firma" descr="Firma digital"/>

--- a/imagenes_guardadas/archivo_con_firma.xlsx
+++ b/imagenes_guardadas/archivo_con_firma.xlsx
@@ -274,7 +274,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -398,16 +398,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right/>
@@ -421,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
@@ -508,60 +499,65 @@
     <xf xfId="0" fontId="1" numFmtId="4" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="49" fillId="2" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="49" fillId="2" borderId="6" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="49" fillId="2" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="49" fillId="2" borderId="6" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -970,8 +966,8 @@
   </sheetPr>
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1" topLeftCell="A61">
-      <selection activeCell="P81" sqref="P81"/>
+    <sheetView tabSelected="1" workbookViewId="0" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="Q77" sqref="Q77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1023,25 +1019,25 @@
       <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="10">
         <v>45672</v>
       </c>
-      <c r="H7" s="53" t="s">
+      <c r="H7" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="50" t="s">
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="51"/>
+      <c r="M7" s="46"/>
     </row>
     <row r="8" spans="1:14" customHeight="1" ht="7.5">
       <c r="B8" s="12"/>
@@ -1049,19 +1045,19 @@
     </row>
     <row r="9" spans="1:14" customHeight="1" ht="13.5">
       <c r="A9" s="9"/>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="53"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="53" t="s">
+      <c r="H9" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="53"/>
+      <c r="I9" s="48"/>
       <c r="K9" s="14"/>
       <c r="L9" s="9"/>
       <c r="M9" s="15"/>
@@ -1083,22 +1079,22 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="9"/>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="53"/>
+      <c r="C11" s="48"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="51"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="46"/>
     </row>
     <row r="12" spans="1:14" customHeight="1" ht="7.5">
       <c r="A12" s="9"/>
@@ -1146,22 +1142,22 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="9"/>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="58"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="22"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="51"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="46"/>
     </row>
     <row r="16" spans="1:14" customHeight="1" ht="7.5">
       <c r="B16" s="12"/>
@@ -1171,22 +1167,22 @@
       <c r="B17" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="H17" s="58" t="s">
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="H17" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="58"/>
-      <c r="J17" s="59" t="s">
+      <c r="I17" s="44"/>
+      <c r="J17" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="60"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="50"/>
     </row>
     <row r="18" spans="1:14" customHeight="1" ht="7.5">
       <c r="B18" s="12"/>
@@ -1194,23 +1190,23 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="9"/>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="50" t="s">
+      <c r="C19" s="44"/>
+      <c r="D19" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="H19" s="58" t="s">
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="H19" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="58"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="51"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="46"/>
     </row>
     <row r="20" spans="1:14" customHeight="1" ht="7.5">
       <c r="B20" s="12"/>
@@ -1218,23 +1214,23 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="9"/>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="50" t="s">
+      <c r="C21" s="44"/>
+      <c r="D21" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
       <c r="H21" s="22" t="s">
         <v>21</v>
       </c>
       <c r="I21" s="22"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="51"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="46"/>
     </row>
     <row r="22" spans="1:14" customHeight="1" ht="7.5">
       <c r="B22" s="12"/>
@@ -1242,22 +1238,22 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="9"/>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="53"/>
+      <c r="C23" s="48"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="50" t="s">
+      <c r="E23" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="51"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="46"/>
     </row>
     <row r="24" spans="1:14" customHeight="1" ht="7.5">
       <c r="A24" s="9"/>
@@ -1297,21 +1293,21 @@
       <c r="M26" s="7"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="H27" s="44" t="s">
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="H27" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="45"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="53"/>
     </row>
     <row r="28" spans="1:14" customHeight="1" ht="7.5">
       <c r="A28" s="9"/>
@@ -1323,26 +1319,26 @@
     </row>
     <row r="29" spans="1:14" customHeight="1" ht="13.5">
       <c r="A29" s="9"/>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="53"/>
+      <c r="C29" s="48"/>
       <c r="D29" s="9"/>
       <c r="E29" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F29" s="9"/>
-      <c r="G29" s="53" t="s">
+      <c r="G29" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
       <c r="J29" s="9"/>
       <c r="K29" s="14"/>
       <c r="L29" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="M29" s="55"/>
+      <c r="M29" s="54"/>
     </row>
     <row r="30" spans="1:14" customHeight="1" ht="7.5">
       <c r="B30" s="29"/>
@@ -1353,30 +1349,30 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
-      <c r="M30" s="56"/>
+      <c r="M30" s="55"/>
     </row>
     <row r="31" spans="1:14" customHeight="1" ht="13.5">
       <c r="A31" s="9"/>
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="53"/>
+      <c r="C31" s="48"/>
       <c r="D31" s="9"/>
       <c r="E31" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F31" s="9"/>
-      <c r="G31" s="53" t="s">
+      <c r="G31" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
       <c r="J31" s="9"/>
       <c r="K31" s="14"/>
       <c r="L31" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="M31" s="56"/>
+      <c r="M31" s="55"/>
     </row>
     <row r="32" spans="1:14" customHeight="1" ht="7.5">
       <c r="B32" s="8"/>
@@ -1391,20 +1387,20 @@
     </row>
     <row r="33" spans="1:14" customHeight="1" ht="13.5">
       <c r="A33" s="9"/>
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="53"/>
+      <c r="C33" s="48"/>
       <c r="D33" s="9"/>
       <c r="E33" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F33" s="9"/>
-      <c r="G33" s="53" t="s">
+      <c r="G33" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
       <c r="J33" s="9"/>
       <c r="K33" s="30"/>
       <c r="L33" s="9"/>
@@ -1423,17 +1419,17 @@
     </row>
     <row r="35" spans="1:14" customHeight="1" ht="13.5">
       <c r="A35" s="9"/>
-      <c r="B35" s="52" t="s">
+      <c r="B35" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="53"/>
+      <c r="C35" s="48"/>
       <c r="D35" s="9"/>
       <c r="E35" s="14"/>
-      <c r="G35" s="53" t="s">
+      <c r="G35" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
       <c r="J35" s="9"/>
       <c r="K35" s="30"/>
       <c r="L35" s="9"/>
@@ -1452,18 +1448,18 @@
     </row>
     <row r="37" spans="1:14" customHeight="1" ht="13.5">
       <c r="A37" s="9"/>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="53"/>
+      <c r="C37" s="48"/>
       <c r="D37" s="9"/>
       <c r="E37" s="14"/>
       <c r="F37" s="19"/>
-      <c r="G37" s="53" t="s">
+      <c r="G37" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
       <c r="J37" s="9"/>
       <c r="K37" s="30"/>
       <c r="L37" s="19"/>
@@ -1823,26 +1819,27 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="19"/>
-      <c r="B73" s="54" t="s">
+      <c r="B73" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C73" s="44"/>
+      <c r="C73" s="52"/>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
-      <c r="F73" s="44" t="s">
+      <c r="F73" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="G73" s="44"/>
-      <c r="H73" s="44"/>
-      <c r="I73" s="44"/>
-      <c r="L73" s="44" t="s">
+      <c r="G73" s="52"/>
+      <c r="H73" s="52"/>
+      <c r="I73" s="52"/>
+      <c r="L73" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="M73" s="45"/>
+      <c r="M73" s="53"/>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="19"/>
-      <c r="B74" s="42"/>
+      <c r="B74" s="60"/>
+      <c r="C74" s="59"/>
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
       <c r="F74" s="19"/>
@@ -1850,31 +1847,31 @@
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
       <c r="L74" s="19"/>
-      <c r="M74" s="43"/>
+      <c r="M74" s="42"/>
     </row>
     <row r="75" spans="1:14" customHeight="1" ht="12.75">
-      <c r="B75" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C75" s="47"/>
+      <c r="B75" s="61"/>
+      <c r="C75" s="58"/>
       <c r="M75" s="13"/>
     </row>
     <row r="76" spans="1:14" customHeight="1" ht="33">
       <c r="A76" s="19"/>
-      <c r="B76" s="48"/>
-      <c r="C76" s="49"/>
+      <c r="B76" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="56"/>
       <c r="D76" s="19"/>
       <c r="E76" s="19"/>
-      <c r="F76" s="50" t="s">
+      <c r="F76" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="G76" s="50"/>
-      <c r="H76" s="50"/>
-      <c r="I76" s="50"/>
-      <c r="L76" s="50" t="s">
+      <c r="G76" s="45"/>
+      <c r="H76" s="45"/>
+      <c r="I76" s="45"/>
+      <c r="L76" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="M76" s="51"/>
+      <c r="M76" s="46"/>
     </row>
     <row r="77" spans="1:14" customHeight="1" ht="8.25">
       <c r="B77" s="35"/>
@@ -1896,6 +1893,31 @@
     <row r="79" spans="1:14" customHeight="1" ht="15.75" hidden="true"/>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:M23"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="M29:M31"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="G31:I31"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="H19:I19"/>
@@ -1912,43 +1934,13 @@
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="J17:M17"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:M23"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="M29:M31"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="B75:C76"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="F73:I73"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="0.19685039370079" right="0.19685039370079" top="0" bottom="0" header="0" footer="0.19685039370079"/>
   <pageSetup paperSize="1" orientation="portrait" scale="98" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="false">
-    <oddHeader/>
     <oddFooter>&amp;R&amp;"CorpoS,Negrita"&amp;9AS-FO-001</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
   <drawing r:id="rId2"/>
-  <tableParts count="0"/>
 </worksheet>
 </file>